--- a/biology/Botanique/Commidendrum_rotundifolium/Commidendrum_rotundifolium.xlsx
+++ b/biology/Botanique/Commidendrum_rotundifolium/Commidendrum_rotundifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Commidendrum rotundifolium est une espèce de plante à fleurs de la famille des Asteraceae.
-L'espèce avait été classée éteinte à l'état sauvage en 1998. Elle est considérée comme en critique danger d'extinction depuis 2016, après la découverte d'un unique individu sauvage[1].
+L'espèce avait été classée éteinte à l'état sauvage en 1998. Elle est considérée comme en critique danger d'extinction depuis 2016, après la découverte d'un unique individu sauvage.
 L'espèce a été pensé éteinte, mais un dernier arbre a été découvert en 1982 sur une falaise à la lisière sud de Horse Pasture. Cet arbre, longtemps considéré comme le dernier, a été détruit en 1986 par une tempête. Heureusement des graines ont été récoltés et cultivés à partir de cet arbre avant qu'il ne périsse. 
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les espèces du genre Commidendrum, Commidendrum rotundifolium est endémique à Sainte-Hélène.
 </t>
